--- a/Archivos Excel/performs.xlsx
+++ b/Archivos Excel/performs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74374E2-F1C2-4568-9C25-84D909054E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A130D-55AD-46A9-A1A3-54457169B0D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{2097D811-5DB0-4585-9828-BED22A7DE7AD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>#Reincidentes´s Band ID: 430</t>
+  </si>
+  <si>
+    <t>insert into performs values(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -396,15 +405,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF830F3-D29F-4606-918E-A51632C744EA}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>270</v>
       </c>
@@ -415,8 +427,15 @@
         <v>0</v>
       </c>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="str">
+        <f>CONCATENATE($K$1,A1,$K$3,B1,$K$2)</f>
+        <v>insert into performs values(270,3980);</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>270</v>
       </c>
@@ -425,8 +444,20 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">CONCATENATE($K$1,A2,$K$3,B2,$K$2)</f>
+        <v>insert into performs values(270,3990);</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110</v>
       </c>
@@ -437,8 +468,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into performs values(110,4470);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>110</v>
       </c>
@@ -447,36 +482,46 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into performs values(110,4480);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>430</v>
       </c>
       <c r="B7">
         <v>1270</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into performs values(430,1270);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>430</v>
       </c>
       <c r="B8">
         <v>9200</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into performs values(430,9200);</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="D4:E5"/>
-    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="D7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Archivos Excel/performs.xlsx
+++ b/Archivos Excel/performs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A130D-55AD-46A9-A1A3-54457169B0D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EBA01E-275D-47C3-A65A-76958D269BAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{2097D811-5DB0-4585-9828-BED22A7DE7AD}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones´s Band ID: 781</t>
   </si>
 </sst>
 </file>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF830F3-D29F-4606-918E-A51632C744EA}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +449,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G9" si="0">CONCATENATE($K$1,A2,$K$3,B2,$K$2)</f>
+        <f t="shared" ref="G2:G12" si="0">CONCATENATE($K$1,A2,$K$3,B2,$K$2)</f>
         <v>insert into performs values(270,3990);</v>
       </c>
       <c r="K2" t="s">
@@ -517,11 +521,56 @@
         <v>insert into performs values(430,9200);</v>
       </c>
     </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>781</v>
+      </c>
+      <c r="B10">
+        <v>8437</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into performs values(781,8437);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>781</v>
+      </c>
+      <c r="B11">
+        <v>4372</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into performs values(781,4372);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>781</v>
+      </c>
+      <c r="B12">
+        <v>1834</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into performs values(781,1834);</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="D7:E8"/>
+    <mergeCell ref="D10:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
